--- a/GradeDistributionsDB/Fall2015/Output/Fall2015 MS.xlsx
+++ b/GradeDistributionsDB/Fall2015/Output/Fall2015 MS.xlsx
@@ -25,19 +25,19 @@
     <t>GPA</t>
   </si>
   <si>
-    <t># of A's</t>
-  </si>
-  <si>
-    <t># of B's</t>
-  </si>
-  <si>
-    <t># of C's</t>
-  </si>
-  <si>
-    <t># of D's</t>
-  </si>
-  <si>
-    <t># of F's</t>
+    <t>% of A's</t>
+  </si>
+  <si>
+    <t>% of B's</t>
+  </si>
+  <si>
+    <t>% of C's</t>
+  </si>
+  <si>
+    <t>% of D's</t>
+  </si>
+  <si>
+    <t>% of F's</t>
   </si>
   <si>
     <t>AERS-101</t>
@@ -61,15 +61,39 @@
     <t>0.71%</t>
   </si>
   <si>
+    <t>AERS-201</t>
+  </si>
+  <si>
+    <t>KOSTER B</t>
+  </si>
+  <si>
+    <t>70.06%</t>
+  </si>
+  <si>
+    <t>26.95%</t>
+  </si>
+  <si>
+    <t>1.80%</t>
+  </si>
+  <si>
+    <t>1.20%</t>
+  </si>
+  <si>
+    <t>AERS-303</t>
+  </si>
+  <si>
+    <t>SANGER N</t>
+  </si>
+  <si>
+    <t>100.00%</t>
+  </si>
+  <si>
     <t>AERS-403</t>
   </si>
   <si>
     <t>MILITARY S</t>
   </si>
   <si>
-    <t>100.00%</t>
-  </si>
-  <si>
     <t>TOTAL S</t>
   </si>
   <si>
@@ -88,118 +112,211 @@
     <t>10.00%</t>
   </si>
   <si>
+    <t>MLSC-121</t>
+  </si>
+  <si>
+    <t>STOERMER G</t>
+  </si>
+  <si>
+    <t>85.35%</t>
+  </si>
+  <si>
+    <t>13.64%</t>
+  </si>
+  <si>
+    <t>0.51%</t>
+  </si>
+  <si>
+    <t>MLSC-221</t>
+  </si>
+  <si>
+    <t>GEORGE A</t>
+  </si>
+  <si>
+    <t>85.15%</t>
+  </si>
+  <si>
+    <t>8.91%</t>
+  </si>
+  <si>
+    <t>0.99%</t>
+  </si>
+  <si>
+    <t>1.98%</t>
+  </si>
+  <si>
+    <t>2.97%</t>
+  </si>
+  <si>
+    <t>MLSC-321</t>
+  </si>
+  <si>
+    <t>KNIGHT J</t>
+  </si>
+  <si>
+    <t>65.60%</t>
+  </si>
+  <si>
+    <t>29.60%</t>
+  </si>
+  <si>
+    <t>0.80%</t>
+  </si>
+  <si>
+    <t>3.20%</t>
+  </si>
+  <si>
+    <t>MLSC-421</t>
+  </si>
+  <si>
+    <t>BURRESCIA J</t>
+  </si>
+  <si>
+    <t>76.92%</t>
+  </si>
+  <si>
+    <t>17.95%</t>
+  </si>
+  <si>
+    <t>5.13%</t>
+  </si>
+  <si>
+    <t>MLSC-485</t>
+  </si>
+  <si>
+    <t>76.19%</t>
+  </si>
+  <si>
+    <t>14.29%</t>
+  </si>
+  <si>
+    <t>4.76%</t>
+  </si>
+  <si>
+    <t>NAVAL S</t>
+  </si>
+  <si>
+    <t>NVSC-101</t>
+  </si>
+  <si>
+    <t>RONEY F</t>
+  </si>
+  <si>
+    <t>56.60%</t>
+  </si>
+  <si>
+    <t>35.85%</t>
+  </si>
+  <si>
+    <t>5.66%</t>
+  </si>
+  <si>
+    <t>1.89%</t>
+  </si>
+  <si>
+    <t>LIEBSCH J</t>
+  </si>
+  <si>
+    <t>52.08%</t>
+  </si>
+  <si>
+    <t>34.38%</t>
+  </si>
+  <si>
+    <t>11.46%</t>
+  </si>
+  <si>
+    <t>2.08%</t>
+  </si>
+  <si>
+    <t>HAMEL A</t>
+  </si>
+  <si>
+    <t>56.52%</t>
+  </si>
+  <si>
+    <t>41.30%</t>
+  </si>
+  <si>
+    <t>2.17%</t>
+  </si>
+  <si>
+    <t>NVSC-404</t>
+  </si>
+  <si>
+    <t>SCHMIDT M</t>
+  </si>
+  <si>
+    <t>72.22%</t>
+  </si>
+  <si>
+    <t>27.78%</t>
+  </si>
+  <si>
+    <t>NVSC-410</t>
+  </si>
+  <si>
+    <t>MORGAN J</t>
+  </si>
+  <si>
+    <t>34.62%</t>
+  </si>
+  <si>
+    <t>46.15%</t>
+  </si>
+  <si>
+    <t>19.23%</t>
+  </si>
+  <si>
     <t>NVSC-485</t>
   </si>
   <si>
-    <t>NAVAL S</t>
-  </si>
-  <si>
-    <t>LIEBSCH J</t>
-  </si>
-  <si>
     <t>COLLEGE T</t>
   </si>
   <si>
-    <t>NVSC-410</t>
-  </si>
-  <si>
-    <t>MORGAN J</t>
-  </si>
-  <si>
-    <t>34.62%</t>
-  </si>
-  <si>
-    <t>46.15%</t>
-  </si>
-  <si>
-    <t>19.23%</t>
-  </si>
-  <si>
-    <t>MLSC-485</t>
-  </si>
-  <si>
-    <t>76.19%</t>
-  </si>
-  <si>
-    <t>14.29%</t>
-  </si>
-  <si>
-    <t>4.76%</t>
-  </si>
-  <si>
-    <t>BURRESCIA J</t>
-  </si>
-  <si>
-    <t>AERS-303</t>
-  </si>
-  <si>
-    <t>SANGER N</t>
-  </si>
-  <si>
-    <t>MLSC-121</t>
-  </si>
-  <si>
-    <t>STOERMER G</t>
-  </si>
-  <si>
-    <t>85.35%</t>
-  </si>
-  <si>
-    <t>13.64%</t>
-  </si>
-  <si>
-    <t>0.51%</t>
-  </si>
-  <si>
-    <t>NVSC-404</t>
-  </si>
-  <si>
-    <t>SCHMIDT M</t>
-  </si>
-  <si>
-    <t>72.22%</t>
-  </si>
-  <si>
-    <t>27.78%</t>
-  </si>
-  <si>
-    <t>MLSC-321</t>
-  </si>
-  <si>
-    <t>KNIGHT J</t>
-  </si>
-  <si>
-    <t>65.60%</t>
-  </si>
-  <si>
-    <t>29.60%</t>
-  </si>
-  <si>
-    <t>0.80%</t>
-  </si>
-  <si>
-    <t>3.20%</t>
-  </si>
-  <si>
-    <t>MLSC-221</t>
-  </si>
-  <si>
-    <t>GEORGE A</t>
-  </si>
-  <si>
-    <t>85.15%</t>
-  </si>
-  <si>
-    <t>8.91%</t>
-  </si>
-  <si>
-    <t>0.99%</t>
-  </si>
-  <si>
-    <t>1.98%</t>
-  </si>
-  <si>
-    <t>2.97%</t>
+    <t>SOMS-111</t>
+  </si>
+  <si>
+    <t>SIMPSON M</t>
+  </si>
+  <si>
+    <t>78.52%</t>
+  </si>
+  <si>
+    <t>16.30%</t>
+  </si>
+  <si>
+    <t>2.22%</t>
+  </si>
+  <si>
+    <t>1.48%</t>
+  </si>
+  <si>
+    <t>KOGUT R</t>
+  </si>
+  <si>
+    <t>54.55%</t>
+  </si>
+  <si>
+    <t>27.27%</t>
+  </si>
+  <si>
+    <t>18.18%</t>
+  </si>
+  <si>
+    <t>VELA C</t>
+  </si>
+  <si>
+    <t>87.25%</t>
+  </si>
+  <si>
+    <t>6.86%</t>
+  </si>
+  <si>
+    <t>1.96%</t>
+  </si>
+  <si>
+    <t>3.92%</t>
   </si>
   <si>
     <t>SOMS-180</t>
@@ -223,48 +340,6 @@
     <t>7.32%</t>
   </si>
   <si>
-    <t>NVSC-101</t>
-  </si>
-  <si>
-    <t>RONEY F</t>
-  </si>
-  <si>
-    <t>56.60%</t>
-  </si>
-  <si>
-    <t>35.85%</t>
-  </si>
-  <si>
-    <t>5.66%</t>
-  </si>
-  <si>
-    <t>1.89%</t>
-  </si>
-  <si>
-    <t>52.08%</t>
-  </si>
-  <si>
-    <t>34.38%</t>
-  </si>
-  <si>
-    <t>11.46%</t>
-  </si>
-  <si>
-    <t>2.08%</t>
-  </si>
-  <si>
-    <t>HAMEL A</t>
-  </si>
-  <si>
-    <t>56.52%</t>
-  </si>
-  <si>
-    <t>41.30%</t>
-  </si>
-  <si>
-    <t>2.17%</t>
-  </si>
-  <si>
     <t>SOMS-380</t>
   </si>
   <si>
@@ -364,24 +439,6 @@
     <t>1.75%</t>
   </si>
   <si>
-    <t>AERS-201</t>
-  </si>
-  <si>
-    <t>KOSTER B</t>
-  </si>
-  <si>
-    <t>70.06%</t>
-  </si>
-  <si>
-    <t>26.95%</t>
-  </si>
-  <si>
-    <t>1.80%</t>
-  </si>
-  <si>
-    <t>1.20%</t>
-  </si>
-  <si>
     <t>SOMS-481</t>
   </si>
   <si>
@@ -434,63 +491,6 @@
   </si>
   <si>
     <t>SOMS-485</t>
-  </si>
-  <si>
-    <t>SIMPSON M</t>
-  </si>
-  <si>
-    <t>SOMS-111</t>
-  </si>
-  <si>
-    <t>78.52%</t>
-  </si>
-  <si>
-    <t>16.30%</t>
-  </si>
-  <si>
-    <t>2.22%</t>
-  </si>
-  <si>
-    <t>1.48%</t>
-  </si>
-  <si>
-    <t>KOGUT R</t>
-  </si>
-  <si>
-    <t>54.55%</t>
-  </si>
-  <si>
-    <t>27.27%</t>
-  </si>
-  <si>
-    <t>18.18%</t>
-  </si>
-  <si>
-    <t>VELA C</t>
-  </si>
-  <si>
-    <t>87.25%</t>
-  </si>
-  <si>
-    <t>6.86%</t>
-  </si>
-  <si>
-    <t>1.96%</t>
-  </si>
-  <si>
-    <t>3.92%</t>
-  </si>
-  <si>
-    <t>MLSC-421</t>
-  </si>
-  <si>
-    <t>76.92%</t>
-  </si>
-  <si>
-    <t>17.95%</t>
-  </si>
-  <si>
-    <t>5.13%</t>
   </si>
 </sst>
 </file>
@@ -899,79 +899,38 @@
         <v>16</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3.6339</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
         <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" t="s">
-        <v>12</v>
+      <c r="A8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="B9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9" t="n">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -986,43 +945,43 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="n">
-        <v>3.9165</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" t="s">
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>24</v>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="B13" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C13" t="n">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
@@ -1039,13 +998,13 @@
     </row>
     <row r="14" spans="1:8">
       <c r="B14" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C14" t="n">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E14" t="s">
         <v>12</v>
@@ -1062,13 +1021,13 @@
     </row>
     <row r="15" spans="1:8">
       <c r="B15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C15" t="n">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E15" t="s">
         <v>12</v>
@@ -1085,16 +1044,16 @@
     </row>
     <row r="16" spans="1:8">
       <c r="B16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3.9165</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
@@ -1106,383 +1065,383 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="B17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" t="n">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="18" spans="1:8">
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" t="n">
-        <v>4</v>
-      </c>
-      <c r="D18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" t="s">
-        <v>28</v>
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3.8366</v>
+      </c>
+      <c r="D19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="B21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" t="n">
-        <v>3.154</v>
-      </c>
-      <c r="D21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" t="s">
-        <v>33</v>
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3.6465</v>
+      </c>
+      <c r="D22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="B24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" t="n">
-        <v>3.571</v>
-      </c>
-      <c r="D24" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" t="s">
-        <v>36</v>
+      <c r="A24" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="B25" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C25" t="n">
-        <v>3.571</v>
+        <v>3.5435</v>
       </c>
       <c r="D25" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G25" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="H25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="n">
-        <v>3.571</v>
-      </c>
-      <c r="D26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="B27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" t="n">
-        <v>3.571</v>
-      </c>
-      <c r="D27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" t="s">
-        <v>35</v>
-      </c>
-      <c r="F27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" t="s">
-        <v>36</v>
+      <c r="A27" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="B28" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="C28" t="n">
+        <v>3.718</v>
+      </c>
+      <c r="D28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" t="s">
+        <v>54</v>
+      </c>
+      <c r="G28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="n">
         <v>3.571</v>
       </c>
-      <c r="D28" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" t="s">
-        <v>35</v>
-      </c>
-      <c r="F28" t="s">
-        <v>36</v>
-      </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="B29" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" t="n">
-        <v>3.571</v>
-      </c>
-      <c r="D29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" t="s">
-        <v>35</v>
-      </c>
-      <c r="F29" t="s">
-        <v>36</v>
-      </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" t="s">
-        <v>38</v>
+      <c r="D31" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" t="s">
+        <v>57</v>
+      </c>
+      <c r="F31" t="s">
+        <v>58</v>
+      </c>
+      <c r="G31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="B32" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3.571</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="E32" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="G32" t="s">
         <v>12</v>
       </c>
       <c r="H32" t="s">
-        <v>12</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="B33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" t="n">
+        <v>3.571</v>
+      </c>
+      <c r="D33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" t="s">
-        <v>40</v>
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" t="n">
+        <v>3.571</v>
+      </c>
+      <c r="D34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34" t="s">
+        <v>58</v>
+      </c>
+      <c r="G34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="B35" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C35" t="n">
-        <v>3.8366</v>
+        <v>3.571</v>
       </c>
       <c r="D35" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="F35" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="G35" t="s">
         <v>12</v>
       </c>
       <c r="H35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" t="s">
-        <v>45</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="B36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" t="n">
+        <v>3.571</v>
+      </c>
+      <c r="D36" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F36" t="s">
+        <v>58</v>
+      </c>
+      <c r="G36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="B38" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" t="n">
-        <v>3.722</v>
-      </c>
-      <c r="D38" t="s">
-        <v>47</v>
-      </c>
-      <c r="E38" t="s">
-        <v>48</v>
-      </c>
-      <c r="F38" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
-      <c r="H38" t="s">
+      <c r="A38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="B39" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" t="n">
+        <v>3.472</v>
+      </c>
+      <c r="D39" t="s">
+        <v>62</v>
+      </c>
+      <c r="E39" t="s">
+        <v>63</v>
+      </c>
+      <c r="F39" t="s">
+        <v>64</v>
+      </c>
+      <c r="G39" t="s">
+        <v>65</v>
+      </c>
+      <c r="H39" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" t="s">
-        <v>49</v>
+      <c r="B40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" t="n">
+        <v>3.3675</v>
+      </c>
+      <c r="D40" t="s">
+        <v>67</v>
+      </c>
+      <c r="E40" t="s">
+        <v>68</v>
+      </c>
+      <c r="F40" t="s">
+        <v>69</v>
+      </c>
+      <c r="G40" t="s">
+        <v>70</v>
+      </c>
+      <c r="H40" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="B41" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="C41" t="n">
-        <v>3.5435</v>
+        <v>3.55</v>
       </c>
       <c r="D41" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="E41" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="F41" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="G41" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="H41" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="B44" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="C44" t="n">
-        <v>3.6465</v>
+        <v>3.722</v>
       </c>
       <c r="D44" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="E44" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="F44" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="G44" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="H44" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="B47" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C47" t="n">
-        <v>3.919</v>
+        <v>3.154</v>
       </c>
       <c r="D47" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="E47" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="G47" t="s">
         <v>12</v>
@@ -1491,52 +1450,52 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
-      <c r="B48" t="s">
-        <v>66</v>
-      </c>
-      <c r="C48" t="n">
-        <v>3.927</v>
-      </c>
-      <c r="D48" t="s">
-        <v>67</v>
-      </c>
-      <c r="E48" t="s">
-        <v>68</v>
-      </c>
-      <c r="F48" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" t="s">
-        <v>12</v>
-      </c>
-      <c r="H48" t="s">
-        <v>12</v>
+    <row r="49" spans="1:8">
+      <c r="A49" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" t="s">
-        <v>69</v>
+      <c r="B50" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" t="n">
+        <v>4</v>
+      </c>
+      <c r="D50" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="B51" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="C51" t="n">
-        <v>3.472</v>
+        <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="E51" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="G51" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="H51" t="s">
         <v>12</v>
@@ -1544,22 +1503,22 @@
     </row>
     <row r="52" spans="1:8">
       <c r="B52" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="C52" t="n">
-        <v>3.3675</v>
+        <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="E52" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="G52" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="H52" t="s">
         <v>12</v>
@@ -1567,19 +1526,19 @@
     </row>
     <row r="53" spans="1:8">
       <c r="B53" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C53" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="E53" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="G53" t="s">
         <v>12</v>
@@ -1588,95 +1547,95 @@
         <v>12</v>
       </c>
     </row>
+    <row r="54" spans="1:8">
+      <c r="B54" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" t="n">
+        <v>4</v>
+      </c>
+      <c r="D54" t="s">
+        <v>23</v>
+      </c>
+      <c r="E54" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="55" spans="1:8">
-      <c r="A55" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="B56" t="s">
-        <v>84</v>
-      </c>
-      <c r="C56" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="D56" t="s">
-        <v>85</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="B55" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" t="n">
+        <v>4</v>
+      </c>
+      <c r="D55" t="s">
+        <v>23</v>
+      </c>
+      <c r="E55" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
         <v>86</v>
-      </c>
-      <c r="F56" t="s">
-        <v>87</v>
-      </c>
-      <c r="G56" t="s">
-        <v>88</v>
-      </c>
-      <c r="H56" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="B57" t="s">
-        <v>89</v>
-      </c>
-      <c r="C57" t="n">
-        <v>3.652</v>
-      </c>
-      <c r="D57" t="s">
-        <v>90</v>
-      </c>
-      <c r="E57" t="s">
-        <v>91</v>
-      </c>
-      <c r="F57" t="s">
-        <v>92</v>
-      </c>
-      <c r="G57" t="s">
-        <v>12</v>
-      </c>
-      <c r="H57" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="B58" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C58" t="n">
-        <v>3.594</v>
+        <v>3.71</v>
       </c>
       <c r="D58" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E58" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F58" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G58" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="H58" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="B59" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C59" t="n">
-        <v>3.6425</v>
+        <v>3.364</v>
       </c>
       <c r="D59" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E59" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F59" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G59" t="s">
         <v>12</v>
@@ -1687,144 +1646,144 @@
     </row>
     <row r="60" spans="1:8">
       <c r="B60" t="s">
+        <v>96</v>
+      </c>
+      <c r="C60" t="n">
+        <v>3.7277</v>
+      </c>
+      <c r="D60" t="s">
+        <v>97</v>
+      </c>
+      <c r="E60" t="s">
+        <v>98</v>
+      </c>
+      <c r="F60" t="s">
+        <v>99</v>
+      </c>
+      <c r="G60" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" t="s">
         <v>101</v>
-      </c>
-      <c r="C60" t="n">
-        <v>3.896</v>
-      </c>
-      <c r="D60" t="s">
-        <v>102</v>
-      </c>
-      <c r="E60" t="s">
-        <v>103</v>
-      </c>
-      <c r="F60" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" t="s">
-        <v>12</v>
-      </c>
-      <c r="H60" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="B61" t="s">
-        <v>104</v>
-      </c>
-      <c r="C61" t="n">
-        <v>3.735</v>
-      </c>
-      <c r="D61" t="s">
-        <v>105</v>
-      </c>
-      <c r="E61" t="s">
-        <v>106</v>
-      </c>
-      <c r="F61" t="s">
-        <v>107</v>
-      </c>
-      <c r="G61" t="s">
-        <v>12</v>
-      </c>
-      <c r="H61" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="B62" t="s">
-        <v>108</v>
-      </c>
-      <c r="C62" t="n">
-        <v>3.481</v>
-      </c>
-      <c r="D62" t="s">
-        <v>47</v>
-      </c>
-      <c r="E62" t="s">
-        <v>109</v>
-      </c>
-      <c r="F62" t="s">
-        <v>109</v>
-      </c>
-      <c r="G62" t="s">
-        <v>110</v>
-      </c>
-      <c r="H62" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="B63" t="s">
+        <v>102</v>
+      </c>
+      <c r="C63" t="n">
+        <v>3.919</v>
+      </c>
+      <c r="D63" t="s">
+        <v>103</v>
+      </c>
+      <c r="E63" t="s">
+        <v>104</v>
+      </c>
+      <c r="F63" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" t="s">
+        <v>12</v>
+      </c>
+      <c r="H63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="B64" t="s">
+        <v>105</v>
+      </c>
+      <c r="C64" t="n">
+        <v>3.927</v>
+      </c>
+      <c r="D64" t="s">
+        <v>106</v>
+      </c>
+      <c r="E64" t="s">
+        <v>107</v>
+      </c>
+      <c r="F64" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" t="s">
+        <v>12</v>
+      </c>
+      <c r="H64" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="B67" t="s">
+        <v>109</v>
+      </c>
+      <c r="C67" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D67" t="s">
+        <v>110</v>
+      </c>
+      <c r="E67" t="s">
+        <v>111</v>
+      </c>
+      <c r="F67" t="s">
         <v>112</v>
       </c>
-      <c r="C63" t="n">
-        <v>3.765</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="G67" t="s">
         <v>113</v>
       </c>
-      <c r="E63" t="s">
+      <c r="H67" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="B68" t="s">
         <v>114</v>
       </c>
-      <c r="F63" t="s">
-        <v>12</v>
-      </c>
-      <c r="G63" t="s">
+      <c r="C68" t="n">
+        <v>3.652</v>
+      </c>
+      <c r="D68" t="s">
         <v>115</v>
       </c>
-      <c r="H63" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" t="s">
+      <c r="E68" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="B66" t="s">
+      <c r="F68" t="s">
         <v>117</v>
       </c>
-      <c r="C66" t="n">
-        <v>3.6339</v>
-      </c>
-      <c r="D66" t="s">
-        <v>118</v>
-      </c>
-      <c r="E66" t="s">
-        <v>119</v>
-      </c>
-      <c r="F66" t="s">
-        <v>120</v>
-      </c>
-      <c r="G66" t="s">
-        <v>12</v>
-      </c>
-      <c r="H66" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" t="s">
-        <v>122</v>
+      <c r="G68" t="s">
+        <v>12</v>
+      </c>
+      <c r="H68" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="B69" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C69" t="n">
-        <v>3.733</v>
+        <v>3.594</v>
       </c>
       <c r="D69" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E69" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F69" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G69" t="s">
         <v>12</v>
@@ -1835,19 +1794,19 @@
     </row>
     <row r="70" spans="1:8">
       <c r="B70" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3.6425</v>
       </c>
       <c r="D70" t="s">
-        <v>17</v>
+        <v>123</v>
       </c>
       <c r="E70" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="G70" t="s">
         <v>12</v>
@@ -1858,45 +1817,45 @@
     </row>
     <row r="71" spans="1:8">
       <c r="B71" t="s">
+        <v>126</v>
+      </c>
+      <c r="C71" t="n">
+        <v>3.896</v>
+      </c>
+      <c r="D71" t="s">
         <v>127</v>
       </c>
-      <c r="C71" t="n">
-        <v>3.261</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>128</v>
       </c>
-      <c r="E71" t="s">
-        <v>129</v>
-      </c>
       <c r="F71" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="G71" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="H71" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="B72" t="s">
+        <v>129</v>
+      </c>
+      <c r="C72" t="n">
+        <v>3.735</v>
+      </c>
+      <c r="D72" t="s">
         <v>130</v>
       </c>
-      <c r="C72" t="n">
-        <v>3.347</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>131</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>132</v>
       </c>
-      <c r="F72" t="s">
-        <v>133</v>
-      </c>
       <c r="G72" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="H72" t="s">
         <v>12</v>
@@ -1904,70 +1863,70 @@
     </row>
     <row r="73" spans="1:8">
       <c r="B73" t="s">
+        <v>133</v>
+      </c>
+      <c r="C73" t="n">
+        <v>3.481</v>
+      </c>
+      <c r="D73" t="s">
+        <v>77</v>
+      </c>
+      <c r="E73" t="s">
+        <v>134</v>
+      </c>
+      <c r="F73" t="s">
+        <v>134</v>
+      </c>
+      <c r="G73" t="s">
         <v>135</v>
       </c>
-      <c r="C73" t="n">
-        <v>2.143</v>
-      </c>
-      <c r="D73" t="s">
-        <v>36</v>
-      </c>
-      <c r="E73" t="s">
+      <c r="H73" t="s">
         <v>136</v>
       </c>
-      <c r="F73" t="s">
+    </row>
+    <row r="74" spans="1:8">
+      <c r="B74" t="s">
         <v>137</v>
       </c>
-      <c r="G73" t="s">
+      <c r="C74" t="n">
+        <v>3.765</v>
+      </c>
+      <c r="D74" t="s">
         <v>138</v>
       </c>
-      <c r="H73" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" t="s">
+      <c r="E74" t="s">
         <v>139</v>
       </c>
+      <c r="F74" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" t="s">
+        <v>140</v>
+      </c>
+      <c r="H74" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="76" spans="1:8">
-      <c r="B76" t="s">
-        <v>18</v>
-      </c>
-      <c r="C76" t="n">
-        <v>4</v>
-      </c>
-      <c r="D76" t="s">
-        <v>17</v>
-      </c>
-      <c r="E76" t="s">
-        <v>12</v>
-      </c>
-      <c r="F76" t="s">
-        <v>12</v>
-      </c>
-      <c r="G76" t="s">
-        <v>12</v>
-      </c>
-      <c r="H76" t="s">
-        <v>12</v>
+      <c r="A76" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="B77" t="s">
-        <v>16</v>
+        <v>142</v>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3.733</v>
       </c>
       <c r="D77" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
       <c r="E77" t="s">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="F77" t="s">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="G77" t="s">
         <v>12</v>
@@ -1978,13 +1937,13 @@
     </row>
     <row r="78" spans="1:8">
       <c r="B78" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C78" t="n">
         <v>4</v>
       </c>
       <c r="D78" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E78" t="s">
         <v>12</v>
@@ -2001,121 +1960,162 @@
     </row>
     <row r="79" spans="1:8">
       <c r="B79" t="s">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3.261</v>
       </c>
       <c r="D79" t="s">
-        <v>17</v>
+        <v>147</v>
       </c>
       <c r="E79" t="s">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="F79" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="G79" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="H79" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="80" spans="1:8">
+      <c r="B80" t="s">
+        <v>149</v>
+      </c>
+      <c r="C80" t="n">
+        <v>3.347</v>
+      </c>
+      <c r="D80" t="s">
+        <v>150</v>
+      </c>
+      <c r="E80" t="s">
+        <v>151</v>
+      </c>
+      <c r="F80" t="s">
+        <v>152</v>
+      </c>
+      <c r="G80" t="s">
+        <v>153</v>
+      </c>
+      <c r="H80" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="81" spans="1:8">
-      <c r="A81" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="B82" t="s">
-        <v>140</v>
-      </c>
-      <c r="C82" t="n">
-        <v>3.71</v>
-      </c>
-      <c r="D82" t="s">
-        <v>142</v>
-      </c>
-      <c r="E82" t="s">
-        <v>143</v>
-      </c>
-      <c r="F82" t="s">
-        <v>144</v>
-      </c>
-      <c r="G82" t="s">
-        <v>145</v>
-      </c>
-      <c r="H82" t="s">
-        <v>145</v>
+      <c r="B81" t="s">
+        <v>154</v>
+      </c>
+      <c r="C81" t="n">
+        <v>2.143</v>
+      </c>
+      <c r="D81" t="s">
+        <v>58</v>
+      </c>
+      <c r="E81" t="s">
+        <v>155</v>
+      </c>
+      <c r="F81" t="s">
+        <v>156</v>
+      </c>
+      <c r="G81" t="s">
+        <v>157</v>
+      </c>
+      <c r="H81" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="83" spans="1:8">
-      <c r="B83" t="s">
-        <v>146</v>
-      </c>
-      <c r="C83" t="n">
-        <v>3.364</v>
-      </c>
-      <c r="D83" t="s">
-        <v>147</v>
-      </c>
-      <c r="E83" t="s">
-        <v>148</v>
-      </c>
-      <c r="F83" t="s">
-        <v>149</v>
-      </c>
-      <c r="G83" t="s">
-        <v>12</v>
-      </c>
-      <c r="H83" t="s">
-        <v>12</v>
+      <c r="A83" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="B84" t="s">
-        <v>150</v>
+        <v>26</v>
       </c>
       <c r="C84" t="n">
-        <v>3.7277</v>
+        <v>4</v>
       </c>
       <c r="D84" t="s">
-        <v>151</v>
+        <v>23</v>
       </c>
       <c r="E84" t="s">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="G84" t="s">
         <v>12</v>
       </c>
       <c r="H84" t="s">
-        <v>154</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="B85" t="s">
+        <v>25</v>
+      </c>
+      <c r="C85" t="n">
+        <v>4</v>
+      </c>
+      <c r="D85" t="s">
+        <v>23</v>
+      </c>
+      <c r="E85" t="s">
+        <v>12</v>
+      </c>
+      <c r="F85" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" t="s">
+        <v>12</v>
+      </c>
+      <c r="H85" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:8">
-      <c r="A86" t="s">
-        <v>155</v>
+      <c r="B86" t="s">
+        <v>87</v>
+      </c>
+      <c r="C86" t="n">
+        <v>4</v>
+      </c>
+      <c r="D86" t="s">
+        <v>23</v>
+      </c>
+      <c r="E86" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86" t="s">
+        <v>12</v>
+      </c>
+      <c r="G86" t="s">
+        <v>12</v>
+      </c>
+      <c r="H86" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="B87" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C87" t="n">
-        <v>3.718</v>
+        <v>4</v>
       </c>
       <c r="D87" t="s">
-        <v>156</v>
+        <v>23</v>
       </c>
       <c r="E87" t="s">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="G87" t="s">
         <v>12</v>

--- a/GradeDistributionsDB/Fall2015/Output/Fall2015 MS.xlsx
+++ b/GradeDistributionsDB/Fall2015/Output/Fall2015 MS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="177">
   <si>
     <t>Course</t>
   </si>
@@ -67,16 +67,16 @@
     <t>KOSTER B</t>
   </si>
   <si>
-    <t>70.06%</t>
-  </si>
-  <si>
-    <t>26.95%</t>
-  </si>
-  <si>
-    <t>1.80%</t>
-  </si>
-  <si>
-    <t>1.20%</t>
+    <t>69.31%</t>
+  </si>
+  <si>
+    <t>28.04%</t>
+  </si>
+  <si>
+    <t>1.59%</t>
+  </si>
+  <si>
+    <t>1.06%</t>
   </si>
   <si>
     <t>AERS-303</t>
@@ -91,25 +91,13 @@
     <t>AERS-403</t>
   </si>
   <si>
-    <t>MILITARY S</t>
-  </si>
-  <si>
-    <t>TOTAL S</t>
-  </si>
-  <si>
-    <t>DEPARTMENT T</t>
-  </si>
-  <si>
-    <t>TEXAS A</t>
-  </si>
-  <si>
     <t>ARCHER J</t>
   </si>
   <si>
-    <t>90.00%</t>
-  </si>
-  <si>
-    <t>10.00%</t>
+    <t>93.18%</t>
+  </si>
+  <si>
+    <t>6.82%</t>
   </si>
   <si>
     <t>MLSC-121</t>
@@ -118,13 +106,13 @@
     <t>STOERMER G</t>
   </si>
   <si>
-    <t>85.35%</t>
-  </si>
-  <si>
-    <t>13.64%</t>
-  </si>
-  <si>
-    <t>0.51%</t>
+    <t>85.65%</t>
+  </si>
+  <si>
+    <t>13.45%</t>
+  </si>
+  <si>
+    <t>0.45%</t>
   </si>
   <si>
     <t>MLSC-221</t>
@@ -133,19 +121,19 @@
     <t>GEORGE A</t>
   </si>
   <si>
-    <t>85.15%</t>
-  </si>
-  <si>
-    <t>8.91%</t>
+    <t>82.27%</t>
+  </si>
+  <si>
+    <t>13.30%</t>
   </si>
   <si>
     <t>0.99%</t>
   </si>
   <si>
-    <t>1.98%</t>
-  </si>
-  <si>
-    <t>2.97%</t>
+    <t>1.97%</t>
+  </si>
+  <si>
+    <t>1.48%</t>
   </si>
   <si>
     <t>MLSC-321</t>
@@ -172,13 +160,13 @@
     <t>BURRESCIA J</t>
   </si>
   <si>
-    <t>76.92%</t>
-  </si>
-  <si>
-    <t>17.95%</t>
-  </si>
-  <si>
-    <t>5.13%</t>
+    <t>80.87%</t>
+  </si>
+  <si>
+    <t>13.91%</t>
+  </si>
+  <si>
+    <t>5.22%</t>
   </si>
   <si>
     <t>MLSC-485</t>
@@ -193,52 +181,97 @@
     <t>4.76%</t>
   </si>
   <si>
-    <t>NAVAL S</t>
-  </si>
-  <si>
     <t>NVSC-101</t>
   </si>
   <si>
+    <t>LIEBSCH J</t>
+  </si>
+  <si>
+    <t>52.08%</t>
+  </si>
+  <si>
+    <t>34.38%</t>
+  </si>
+  <si>
+    <t>11.46%</t>
+  </si>
+  <si>
+    <t>2.08%</t>
+  </si>
+  <si>
+    <t>HAMEL A</t>
+  </si>
+  <si>
+    <t>56.52%</t>
+  </si>
+  <si>
+    <t>41.30%</t>
+  </si>
+  <si>
+    <t>2.17%</t>
+  </si>
+  <si>
     <t>RONEY F</t>
   </si>
   <si>
-    <t>56.60%</t>
-  </si>
-  <si>
-    <t>35.85%</t>
-  </si>
-  <si>
-    <t>5.66%</t>
-  </si>
-  <si>
-    <t>1.89%</t>
-  </si>
-  <si>
-    <t>LIEBSCH J</t>
-  </si>
-  <si>
-    <t>52.08%</t>
-  </si>
-  <si>
-    <t>34.38%</t>
-  </si>
-  <si>
-    <t>11.46%</t>
-  </si>
-  <si>
-    <t>2.08%</t>
-  </si>
-  <si>
-    <t>HAMEL A</t>
-  </si>
-  <si>
-    <t>56.52%</t>
-  </si>
-  <si>
-    <t>41.30%</t>
-  </si>
-  <si>
-    <t>2.17%</t>
+    <t>67.92%</t>
+  </si>
+  <si>
+    <t>24.53%</t>
+  </si>
+  <si>
+    <t>6.60%</t>
+  </si>
+  <si>
+    <t>0.94%</t>
+  </si>
+  <si>
+    <t>NVSC-210</t>
+  </si>
+  <si>
+    <t>MUELLER M</t>
+  </si>
+  <si>
+    <t>47.37%</t>
+  </si>
+  <si>
+    <t>42.11%</t>
+  </si>
+  <si>
+    <t>10.53%</t>
+  </si>
+  <si>
+    <t>MARRS C</t>
+  </si>
+  <si>
+    <t>76.74%</t>
+  </si>
+  <si>
+    <t>20.93%</t>
+  </si>
+  <si>
+    <t>2.33%</t>
+  </si>
+  <si>
+    <t>PENA M</t>
+  </si>
+  <si>
+    <t>72.38%</t>
+  </si>
+  <si>
+    <t>27.62%</t>
+  </si>
+  <si>
+    <t>NVSC-320</t>
+  </si>
+  <si>
+    <t>STEINBERGER D</t>
+  </si>
+  <si>
+    <t>88.00%</t>
+  </si>
+  <si>
+    <t>12.00%</t>
   </si>
   <si>
     <t>NVSC-404</t>
@@ -271,25 +304,25 @@
     <t>NVSC-485</t>
   </si>
   <si>
-    <t>COLLEGE T</t>
-  </si>
-  <si>
     <t>SOMS-111</t>
   </si>
   <si>
     <t>SIMPSON M</t>
   </si>
   <si>
-    <t>78.52%</t>
-  </si>
-  <si>
-    <t>16.30%</t>
-  </si>
-  <si>
-    <t>2.22%</t>
-  </si>
-  <si>
-    <t>1.48%</t>
+    <t>79.04%</t>
+  </si>
+  <si>
+    <t>15.46%</t>
+  </si>
+  <si>
+    <t>3.09%</t>
+  </si>
+  <si>
+    <t>1.37%</t>
+  </si>
+  <si>
+    <t>1.03%</t>
   </si>
   <si>
     <t>KOGUT R</t>
@@ -307,16 +340,16 @@
     <t>VELA C</t>
   </si>
   <si>
-    <t>87.25%</t>
-  </si>
-  <si>
-    <t>6.86%</t>
-  </si>
-  <si>
-    <t>1.96%</t>
-  </si>
-  <si>
-    <t>3.92%</t>
+    <t>85.44%</t>
+  </si>
+  <si>
+    <t>8.86%</t>
+  </si>
+  <si>
+    <t>1.90%</t>
+  </si>
+  <si>
+    <t>3.80%</t>
   </si>
   <si>
     <t>SOMS-180</t>
@@ -361,108 +394,129 @@
     <t>SCOGGINS J</t>
   </si>
   <si>
-    <t>73.91%</t>
-  </si>
-  <si>
-    <t>17.39%</t>
+    <t>67.39%</t>
+  </si>
+  <si>
+    <t>21.74%</t>
+  </si>
+  <si>
+    <t>10.87%</t>
+  </si>
+  <si>
+    <t>ARMSTRONG A</t>
+  </si>
+  <si>
+    <t>71.88%</t>
+  </si>
+  <si>
+    <t>15.63%</t>
+  </si>
+  <si>
+    <t>12.50%</t>
+  </si>
+  <si>
+    <t>WENTLING D</t>
+  </si>
+  <si>
+    <t>96.15%</t>
+  </si>
+  <si>
+    <t>1.92%</t>
+  </si>
+  <si>
+    <t>SULLINS A</t>
+  </si>
+  <si>
+    <t>80.00%</t>
+  </si>
+  <si>
+    <t>16.67%</t>
+  </si>
+  <si>
+    <t>3.33%</t>
+  </si>
+  <si>
+    <t>FRYSINGER V</t>
+  </si>
+  <si>
+    <t>70.00%</t>
+  </si>
+  <si>
+    <t>24.00%</t>
+  </si>
+  <si>
+    <t>6.00%</t>
+  </si>
+  <si>
+    <t>PRESTON T</t>
+  </si>
+  <si>
+    <t>79.41%</t>
+  </si>
+  <si>
+    <t>14.71%</t>
+  </si>
+  <si>
+    <t>5.88%</t>
+  </si>
+  <si>
+    <t>SHEHANE M</t>
+  </si>
+  <si>
+    <t>11.11%</t>
+  </si>
+  <si>
+    <t>3.70%</t>
+  </si>
+  <si>
+    <t>1.85%</t>
+  </si>
+  <si>
+    <t>IVEY C</t>
+  </si>
+  <si>
+    <t>78.95%</t>
+  </si>
+  <si>
+    <t>19.30%</t>
+  </si>
+  <si>
+    <t>1.75%</t>
+  </si>
+  <si>
+    <t>SOMS-481</t>
+  </si>
+  <si>
+    <t>MOONEY K</t>
+  </si>
+  <si>
+    <t>77.19%</t>
+  </si>
+  <si>
+    <t>3.51%</t>
+  </si>
+  <si>
+    <t>BROWN T</t>
+  </si>
+  <si>
+    <t>98.88%</t>
+  </si>
+  <si>
+    <t>1.12%</t>
+  </si>
+  <si>
+    <t>ARCAK C</t>
+  </si>
+  <si>
+    <t>52.17%</t>
+  </si>
+  <si>
+    <t>30.43%</t>
   </si>
   <si>
     <t>8.70%</t>
   </si>
   <si>
-    <t>ARMSTRONG A</t>
-  </si>
-  <si>
-    <t>71.88%</t>
-  </si>
-  <si>
-    <t>15.63%</t>
-  </si>
-  <si>
-    <t>12.50%</t>
-  </si>
-  <si>
-    <t>FRYSINGER V</t>
-  </si>
-  <si>
-    <t>70.00%</t>
-  </si>
-  <si>
-    <t>24.00%</t>
-  </si>
-  <si>
-    <t>6.00%</t>
-  </si>
-  <si>
-    <t>WENTLING D</t>
-  </si>
-  <si>
-    <t>96.15%</t>
-  </si>
-  <si>
-    <t>1.92%</t>
-  </si>
-  <si>
-    <t>PRESTON T</t>
-  </si>
-  <si>
-    <t>79.41%</t>
-  </si>
-  <si>
-    <t>14.71%</t>
-  </si>
-  <si>
-    <t>5.88%</t>
-  </si>
-  <si>
-    <t>SHEHANE M</t>
-  </si>
-  <si>
-    <t>11.11%</t>
-  </si>
-  <si>
-    <t>3.70%</t>
-  </si>
-  <si>
-    <t>1.85%</t>
-  </si>
-  <si>
-    <t>IVEY C</t>
-  </si>
-  <si>
-    <t>78.95%</t>
-  </si>
-  <si>
-    <t>19.30%</t>
-  </si>
-  <si>
-    <t>1.75%</t>
-  </si>
-  <si>
-    <t>SOMS-481</t>
-  </si>
-  <si>
-    <t>MOONEY K</t>
-  </si>
-  <si>
-    <t>77.19%</t>
-  </si>
-  <si>
-    <t>3.51%</t>
-  </si>
-  <si>
-    <t>BROWN T</t>
-  </si>
-  <si>
-    <t>ARCAK C</t>
-  </si>
-  <si>
-    <t>52.17%</t>
-  </si>
-  <si>
-    <t>30.43%</t>
-  </si>
-  <si>
     <t>STRUMINGER R</t>
   </si>
   <si>
@@ -481,13 +535,13 @@
     <t>HUMPHREYS L</t>
   </si>
   <si>
-    <t>23.81%</t>
-  </si>
-  <si>
-    <t>52.38%</t>
-  </si>
-  <si>
-    <t>19.05%</t>
+    <t>8.16%</t>
+  </si>
+  <si>
+    <t>36.73%</t>
+  </si>
+  <si>
+    <t>40.82%</t>
   </si>
   <si>
     <t>SOMS-485</t>
@@ -827,7 +881,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H87"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -899,7 +953,7 @@
         <v>16</v>
       </c>
       <c r="C6" t="n">
-        <v>3.6339</v>
+        <v>3.6341</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -955,13 +1009,13 @@
         <v>25</v>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3.9443</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -973,572 +1027,449 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="n">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="14" spans="1:8">
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="n">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" t="s">
-        <v>12</v>
+      <c r="A14" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="B15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3.8414</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
         <v>12</v>
       </c>
       <c r="H15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" t="n">
-        <v>3.9165</v>
-      </c>
-      <c r="D16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" t="s">
-        <v>12</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" t="n">
-        <v>3.8366</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="B18" t="s">
         <v>34</v>
       </c>
-      <c r="E19" t="s">
+      <c r="C18" t="n">
+        <v>3.6911</v>
+      </c>
+      <c r="D18" t="s">
         <v>35</v>
       </c>
-      <c r="F19" t="s">
+      <c r="E18" t="s">
         <v>36</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" t="s">
-        <v>36</v>
+      <c r="F18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="B22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" t="n">
-        <v>3.6465</v>
-      </c>
-      <c r="D22" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="B21" t="s">
         <v>41</v>
       </c>
-      <c r="G22" t="s">
+      <c r="C21" t="n">
+        <v>3.5435</v>
+      </c>
+      <c r="D21" t="s">
         <v>42</v>
       </c>
-      <c r="H22" t="s">
+      <c r="E21" t="s">
         <v>43</v>
       </c>
+      <c r="F21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="B25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" t="n">
-        <v>3.5435</v>
-      </c>
-      <c r="D25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="B24" t="s">
         <v>47</v>
       </c>
-      <c r="F25" t="s">
+      <c r="C24" t="n">
+        <v>3.758</v>
+      </c>
+      <c r="D24" t="s">
         <v>48</v>
       </c>
-      <c r="G25" t="s">
-        <v>48</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="E24" t="s">
         <v>49</v>
       </c>
+      <c r="F24" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="B28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" t="n">
-        <v>3.718</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="B27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3.571</v>
+      </c>
+      <c r="D27" t="s">
         <v>52</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E27" t="s">
         <v>53</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F27" t="s">
         <v>54</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" t="s">
-        <v>12</v>
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" t="s">
-        <v>55</v>
+      <c r="B30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" t="n">
+        <v>3.3675</v>
+      </c>
+      <c r="D30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
+        <v>59</v>
+      </c>
+      <c r="G30" t="s">
+        <v>60</v>
+      </c>
+      <c r="H30" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="B31" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>3.571</v>
+        <v>3.55</v>
       </c>
       <c r="D31" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E31" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F31" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="G31" t="s">
         <v>12</v>
       </c>
       <c r="H31" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="B32" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="C32" t="n">
-        <v>3.571</v>
+        <v>3.5945</v>
       </c>
       <c r="D32" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E32" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="F32" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="G32" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="H32" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="B33" t="s">
-        <v>59</v>
-      </c>
-      <c r="C33" t="n">
-        <v>3.571</v>
-      </c>
-      <c r="D33" t="s">
-        <v>56</v>
-      </c>
-      <c r="E33" t="s">
-        <v>57</v>
-      </c>
-      <c r="F33" t="s">
-        <v>58</v>
-      </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
-      <c r="H33" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="B34" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" t="n">
-        <v>3.571</v>
-      </c>
-      <c r="D34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E34" t="s">
-        <v>57</v>
-      </c>
-      <c r="F34" t="s">
-        <v>58</v>
-      </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H34" t="s">
-        <v>58</v>
+      <c r="A34" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="B35" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="C35" t="n">
-        <v>3.571</v>
+        <v>3.368</v>
       </c>
       <c r="D35" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="E35" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="F35" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="G35" t="s">
         <v>12</v>
       </c>
       <c r="H35" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="B36" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="C36" t="n">
-        <v>3.571</v>
+        <v>3.744</v>
       </c>
       <c r="D36" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="E36" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="F36" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="G36" t="s">
         <v>12</v>
       </c>
       <c r="H36" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" t="s">
-        <v>60</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="B37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" t="n">
+        <v>3.7225</v>
+      </c>
+      <c r="D37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" t="s">
+        <v>81</v>
+      </c>
+      <c r="F37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="B39" t="s">
-        <v>61</v>
-      </c>
-      <c r="C39" t="n">
-        <v>3.472</v>
-      </c>
-      <c r="D39" t="s">
-        <v>62</v>
-      </c>
-      <c r="E39" t="s">
-        <v>63</v>
-      </c>
-      <c r="F39" t="s">
-        <v>64</v>
-      </c>
-      <c r="G39" t="s">
-        <v>65</v>
-      </c>
-      <c r="H39" t="s">
-        <v>12</v>
+      <c r="A39" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="B40" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C40" t="n">
-        <v>3.3675</v>
+        <v>3.88</v>
       </c>
       <c r="D40" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E40" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="F40" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="G40" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="H40" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
-      <c r="B41" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="D41" t="s">
-        <v>72</v>
-      </c>
-      <c r="E41" t="s">
-        <v>73</v>
-      </c>
-      <c r="F41" t="s">
-        <v>74</v>
-      </c>
-      <c r="G41" t="s">
-        <v>12</v>
-      </c>
-      <c r="H41" t="s">
-        <v>12</v>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="B44" t="s">
-        <v>76</v>
-      </c>
-      <c r="C44" t="n">
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" t="n">
         <v>3.722</v>
       </c>
-      <c r="D44" t="s">
-        <v>77</v>
-      </c>
-      <c r="E44" t="s">
-        <v>78</v>
-      </c>
-      <c r="F44" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
-      <c r="H44" t="s">
-        <v>12</v>
+      <c r="D43" t="s">
+        <v>88</v>
+      </c>
+      <c r="E43" t="s">
+        <v>89</v>
+      </c>
+      <c r="F43" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="B47" t="s">
-        <v>80</v>
-      </c>
-      <c r="C47" t="n">
+      <c r="B46" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" t="n">
         <v>3.154</v>
       </c>
-      <c r="D47" t="s">
-        <v>81</v>
-      </c>
-      <c r="E47" t="s">
-        <v>82</v>
-      </c>
-      <c r="F47" t="s">
-        <v>83</v>
-      </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
-      <c r="H47" t="s">
-        <v>12</v>
+      <c r="D46" t="s">
+        <v>92</v>
+      </c>
+      <c r="E46" t="s">
+        <v>93</v>
+      </c>
+      <c r="F46" t="s">
+        <v>94</v>
+      </c>
+      <c r="G46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="B50" t="s">
-        <v>26</v>
-      </c>
-      <c r="C50" t="n">
+      <c r="B49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" t="n">
         <v>4</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D49" t="s">
         <v>23</v>
       </c>
-      <c r="E50" t="s">
-        <v>12</v>
-      </c>
-      <c r="F50" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" t="s">
-        <v>12</v>
-      </c>
-      <c r="H50" t="s">
+      <c r="E49" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="B51" t="s">
-        <v>28</v>
-      </c>
-      <c r="C51" t="n">
-        <v>4</v>
-      </c>
-      <c r="D51" t="s">
-        <v>23</v>
-      </c>
-      <c r="E51" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" t="s">
-        <v>12</v>
-      </c>
-      <c r="H51" t="s">
-        <v>12</v>
+      <c r="A51" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="B52" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3.707</v>
       </c>
       <c r="D52" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="E52" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="G52" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="H52" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="B53" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3.364</v>
       </c>
       <c r="D53" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="E53" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="F53" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="G53" t="s">
         <v>12</v>
@@ -1549,144 +1480,144 @@
     </row>
     <row r="54" spans="1:8">
       <c r="B54" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3.7167</v>
       </c>
       <c r="D54" t="s">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="E54" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="G54" t="s">
         <v>12</v>
       </c>
       <c r="H54" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="B55" t="s">
-        <v>25</v>
-      </c>
-      <c r="C55" t="n">
-        <v>4</v>
-      </c>
-      <c r="D55" t="s">
-        <v>23</v>
-      </c>
-      <c r="E55" t="s">
-        <v>12</v>
-      </c>
-      <c r="F55" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" t="s">
-        <v>12</v>
-      </c>
-      <c r="H55" t="s">
-        <v>12</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" t="s">
-        <v>86</v>
+      <c r="B57" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" t="n">
+        <v>3.919</v>
+      </c>
+      <c r="D57" t="s">
+        <v>114</v>
+      </c>
+      <c r="E57" t="s">
+        <v>115</v>
+      </c>
+      <c r="F57" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="B58" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="C58" t="n">
-        <v>3.71</v>
+        <v>3.927</v>
       </c>
       <c r="D58" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="E58" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="F58" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="G58" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="H58" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="B59" t="s">
-        <v>92</v>
-      </c>
-      <c r="C59" t="n">
-        <v>3.364</v>
-      </c>
-      <c r="D59" t="s">
-        <v>93</v>
-      </c>
-      <c r="E59" t="s">
-        <v>94</v>
-      </c>
-      <c r="F59" t="s">
-        <v>95</v>
-      </c>
-      <c r="G59" t="s">
-        <v>12</v>
-      </c>
-      <c r="H59" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="B60" t="s">
-        <v>96</v>
-      </c>
-      <c r="C60" t="n">
-        <v>3.7277</v>
-      </c>
-      <c r="D60" t="s">
-        <v>97</v>
-      </c>
-      <c r="E60" t="s">
-        <v>98</v>
-      </c>
-      <c r="F60" t="s">
-        <v>99</v>
-      </c>
-      <c r="G60" t="s">
-        <v>12</v>
-      </c>
-      <c r="H60" t="s">
-        <v>100</v>
+      <c r="A60" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="B61" t="s">
+        <v>120</v>
+      </c>
+      <c r="C61" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D61" t="s">
+        <v>121</v>
+      </c>
+      <c r="E61" t="s">
+        <v>122</v>
+      </c>
+      <c r="F61" t="s">
+        <v>123</v>
+      </c>
+      <c r="G61" t="s">
+        <v>124</v>
+      </c>
+      <c r="H61" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" t="s">
-        <v>101</v>
+      <c r="B62" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" t="n">
+        <v>3.565</v>
+      </c>
+      <c r="D62" t="s">
+        <v>126</v>
+      </c>
+      <c r="E62" t="s">
+        <v>127</v>
+      </c>
+      <c r="F62" t="s">
+        <v>128</v>
+      </c>
+      <c r="G62" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="B63" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="C63" t="n">
-        <v>3.919</v>
+        <v>3.594</v>
       </c>
       <c r="D63" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="E63" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="G63" t="s">
         <v>12</v>
@@ -1697,16 +1628,16 @@
     </row>
     <row r="64" spans="1:8">
       <c r="B64" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="C64" t="n">
-        <v>3.927</v>
+        <v>3.896</v>
       </c>
       <c r="D64" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="E64" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="F64" t="s">
         <v>12</v>
@@ -1715,32 +1646,73 @@
         <v>12</v>
       </c>
       <c r="H64" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="B65" t="s">
+        <v>136</v>
+      </c>
+      <c r="C65" t="n">
+        <v>3.733</v>
+      </c>
+      <c r="D65" t="s">
+        <v>137</v>
+      </c>
+      <c r="E65" t="s">
+        <v>138</v>
+      </c>
+      <c r="F65" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>139</v>
+      </c>
+      <c r="H65" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" t="s">
-        <v>108</v>
+      <c r="B66" t="s">
+        <v>140</v>
+      </c>
+      <c r="C66" t="n">
+        <v>3.6425</v>
+      </c>
+      <c r="D66" t="s">
+        <v>141</v>
+      </c>
+      <c r="E66" t="s">
+        <v>142</v>
+      </c>
+      <c r="F66" t="s">
+        <v>143</v>
+      </c>
+      <c r="G66" t="s">
+        <v>12</v>
+      </c>
+      <c r="H66" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="B67" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="C67" t="n">
-        <v>3.6</v>
+        <v>3.735</v>
       </c>
       <c r="D67" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="E67" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="F67" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
       <c r="G67" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="H67" t="s">
         <v>12</v>
@@ -1748,111 +1720,70 @@
     </row>
     <row r="68" spans="1:8">
       <c r="B68" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="C68" t="n">
-        <v>3.652</v>
+        <v>3.481</v>
       </c>
       <c r="D68" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="E68" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="F68" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="G68" t="s">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="H68" t="s">
-        <v>12</v>
+        <v>151</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="B69" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="C69" t="n">
-        <v>3.594</v>
+        <v>3.765</v>
       </c>
       <c r="D69" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="E69" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="F69" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="G69" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="H69" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
-      <c r="B70" t="s">
-        <v>122</v>
-      </c>
-      <c r="C70" t="n">
-        <v>3.6425</v>
-      </c>
-      <c r="D70" t="s">
-        <v>123</v>
-      </c>
-      <c r="E70" t="s">
-        <v>124</v>
-      </c>
-      <c r="F70" t="s">
-        <v>125</v>
-      </c>
-      <c r="G70" t="s">
-        <v>12</v>
-      </c>
-      <c r="H70" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="71" spans="1:8">
-      <c r="B71" t="s">
-        <v>126</v>
-      </c>
-      <c r="C71" t="n">
-        <v>3.896</v>
-      </c>
-      <c r="D71" t="s">
-        <v>127</v>
-      </c>
-      <c r="E71" t="s">
-        <v>128</v>
-      </c>
-      <c r="F71" t="s">
-        <v>12</v>
-      </c>
-      <c r="G71" t="s">
-        <v>12</v>
-      </c>
-      <c r="H71" t="s">
-        <v>128</v>
+      <c r="A71" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="B72" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="C72" t="n">
-        <v>3.735</v>
+        <v>3.733</v>
       </c>
       <c r="D72" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="E72" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="F72" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="G72" t="s">
         <v>12</v>
@@ -1863,264 +1794,121 @@
     </row>
     <row r="73" spans="1:8">
       <c r="B73" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="C73" t="n">
-        <v>3.481</v>
+        <v>3.9887</v>
       </c>
       <c r="D73" t="s">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="E73" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="F73" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="G73" t="s">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="H73" t="s">
-        <v>136</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="B74" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="C74" t="n">
-        <v>3.765</v>
+        <v>3.261</v>
       </c>
       <c r="D74" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="E74" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="F74" t="s">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="G74" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="H74" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="75" spans="1:8">
+      <c r="B75" t="s">
+        <v>167</v>
+      </c>
+      <c r="C75" t="n">
+        <v>3.347</v>
+      </c>
+      <c r="D75" t="s">
+        <v>168</v>
+      </c>
+      <c r="E75" t="s">
+        <v>169</v>
+      </c>
+      <c r="F75" t="s">
+        <v>170</v>
+      </c>
+      <c r="G75" t="s">
+        <v>171</v>
+      </c>
+      <c r="H75" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="76" spans="1:8">
-      <c r="A76" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="B77" t="s">
-        <v>142</v>
-      </c>
-      <c r="C77" t="n">
-        <v>3.733</v>
-      </c>
-      <c r="D77" t="s">
-        <v>143</v>
-      </c>
-      <c r="E77" t="s">
-        <v>139</v>
-      </c>
-      <c r="F77" t="s">
-        <v>144</v>
-      </c>
-      <c r="G77" t="s">
-        <v>12</v>
-      </c>
-      <c r="H77" t="s">
+      <c r="B76" t="s">
+        <v>172</v>
+      </c>
+      <c r="C76" t="n">
+        <v>2.357</v>
+      </c>
+      <c r="D76" t="s">
+        <v>173</v>
+      </c>
+      <c r="E76" t="s">
+        <v>174</v>
+      </c>
+      <c r="F76" t="s">
+        <v>175</v>
+      </c>
+      <c r="G76" t="s">
+        <v>53</v>
+      </c>
+      <c r="H76" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:8">
-      <c r="B78" t="s">
-        <v>145</v>
-      </c>
-      <c r="C78" t="n">
-        <v>4</v>
-      </c>
-      <c r="D78" t="s">
-        <v>23</v>
-      </c>
-      <c r="E78" t="s">
-        <v>12</v>
-      </c>
-      <c r="F78" t="s">
-        <v>12</v>
-      </c>
-      <c r="G78" t="s">
-        <v>12</v>
-      </c>
-      <c r="H78" t="s">
-        <v>12</v>
+      <c r="A78" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="B79" t="s">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="C79" t="n">
-        <v>3.261</v>
+        <v>4</v>
       </c>
       <c r="D79" t="s">
-        <v>147</v>
+        <v>23</v>
       </c>
       <c r="E79" t="s">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="G79" t="s">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="H79" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="B80" t="s">
-        <v>149</v>
-      </c>
-      <c r="C80" t="n">
-        <v>3.347</v>
-      </c>
-      <c r="D80" t="s">
-        <v>150</v>
-      </c>
-      <c r="E80" t="s">
-        <v>151</v>
-      </c>
-      <c r="F80" t="s">
-        <v>152</v>
-      </c>
-      <c r="G80" t="s">
-        <v>153</v>
-      </c>
-      <c r="H80" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="B81" t="s">
-        <v>154</v>
-      </c>
-      <c r="C81" t="n">
-        <v>2.143</v>
-      </c>
-      <c r="D81" t="s">
-        <v>58</v>
-      </c>
-      <c r="E81" t="s">
-        <v>155</v>
-      </c>
-      <c r="F81" t="s">
-        <v>156</v>
-      </c>
-      <c r="G81" t="s">
-        <v>157</v>
-      </c>
-      <c r="H81" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="A83" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="B84" t="s">
-        <v>26</v>
-      </c>
-      <c r="C84" t="n">
-        <v>4</v>
-      </c>
-      <c r="D84" t="s">
-        <v>23</v>
-      </c>
-      <c r="E84" t="s">
-        <v>12</v>
-      </c>
-      <c r="F84" t="s">
-        <v>12</v>
-      </c>
-      <c r="G84" t="s">
-        <v>12</v>
-      </c>
-      <c r="H84" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="B85" t="s">
-        <v>25</v>
-      </c>
-      <c r="C85" t="n">
-        <v>4</v>
-      </c>
-      <c r="D85" t="s">
-        <v>23</v>
-      </c>
-      <c r="E85" t="s">
-        <v>12</v>
-      </c>
-      <c r="F85" t="s">
-        <v>12</v>
-      </c>
-      <c r="G85" t="s">
-        <v>12</v>
-      </c>
-      <c r="H85" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="B86" t="s">
-        <v>87</v>
-      </c>
-      <c r="C86" t="n">
-        <v>4</v>
-      </c>
-      <c r="D86" t="s">
-        <v>23</v>
-      </c>
-      <c r="E86" t="s">
-        <v>12</v>
-      </c>
-      <c r="F86" t="s">
-        <v>12</v>
-      </c>
-      <c r="G86" t="s">
-        <v>12</v>
-      </c>
-      <c r="H86" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="B87" t="s">
-        <v>28</v>
-      </c>
-      <c r="C87" t="n">
-        <v>4</v>
-      </c>
-      <c r="D87" t="s">
-        <v>23</v>
-      </c>
-      <c r="E87" t="s">
-        <v>12</v>
-      </c>
-      <c r="F87" t="s">
-        <v>12</v>
-      </c>
-      <c r="G87" t="s">
-        <v>12</v>
-      </c>
-      <c r="H87" t="s">
         <v>12</v>
       </c>
     </row>

--- a/GradeDistributionsDB/Fall2015/Output/Fall2015 MS.xlsx
+++ b/GradeDistributionsDB/Fall2015/Output/Fall2015 MS.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="190">
   <si>
     <t>Course</t>
   </si>
@@ -40,6 +40,9 @@
     <t>% of F's</t>
   </si>
   <si>
+    <t>% of Q Drop's</t>
+  </si>
+  <si>
     <t>AERS-101</t>
   </si>
   <si>
@@ -79,6 +82,9 @@
     <t>1.06%</t>
   </si>
   <si>
+    <t>0.53%</t>
+  </si>
+  <si>
     <t>AERS-303</t>
   </si>
   <si>
@@ -154,6 +160,9 @@
     <t>3.20%</t>
   </si>
   <si>
+    <t>1.57%</t>
+  </si>
+  <si>
     <t>MLSC-421</t>
   </si>
   <si>
@@ -181,6 +190,9 @@
     <t>4.76%</t>
   </si>
   <si>
+    <t>6.67%</t>
+  </si>
+  <si>
     <t>NVSC-101</t>
   </si>
   <si>
@@ -226,6 +238,9 @@
     <t>0.94%</t>
   </si>
   <si>
+    <t>0.93%</t>
+  </si>
+  <si>
     <t>NVSC-210</t>
   </si>
   <si>
@@ -325,6 +340,9 @@
     <t>1.03%</t>
   </si>
   <si>
+    <t>0.34%</t>
+  </si>
+  <si>
     <t>KOGUT R</t>
   </si>
   <si>
@@ -337,6 +355,9 @@
     <t>18.18%</t>
   </si>
   <si>
+    <t>4.35%</t>
+  </si>
+  <si>
     <t>VELA C</t>
   </si>
   <si>
@@ -352,6 +373,9 @@
     <t>3.80%</t>
   </si>
   <si>
+    <t>1.25%</t>
+  </si>
+  <si>
     <t>SOMS-180</t>
   </si>
   <si>
@@ -364,6 +388,9 @@
     <t>8.11%</t>
   </si>
   <si>
+    <t>2.63%</t>
+  </si>
+  <si>
     <t>NORRIS D</t>
   </si>
   <si>
@@ -403,6 +430,9 @@
     <t>10.87%</t>
   </si>
   <si>
+    <t>2.13%</t>
+  </si>
+  <si>
     <t>ARMSTRONG A</t>
   </si>
   <si>
@@ -448,6 +478,9 @@
     <t>6.00%</t>
   </si>
   <si>
+    <t>1.96%</t>
+  </si>
+  <si>
     <t>PRESTON T</t>
   </si>
   <si>
@@ -472,6 +505,9 @@
     <t>1.85%</t>
   </si>
   <si>
+    <t>1.82%</t>
+  </si>
+  <si>
     <t>IVEY C</t>
   </si>
   <si>
@@ -530,6 +566,9 @@
   </si>
   <si>
     <t>1.69%</t>
+  </si>
+  <si>
+    <t>1.67%</t>
   </si>
   <si>
     <t>HUMPHREYS L</t>
@@ -582,12 +621,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -881,15 +919,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H79"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -914,1002 +952,1122 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
         <v>3.7521</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" t="n">
         <v>3.6341</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="n">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="B12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C12" t="n">
         <v>3.9443</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="B15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C15" t="n">
         <v>3.8414</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="B18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C18" t="n">
         <v>3.6911</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="B21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C21" t="n">
         <v>3.5435</v>
       </c>
       <c r="D21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="B24" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C24" t="n">
         <v>3.758</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E24" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="B27" t="s">
         <v>50</v>
-      </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="B27" t="s">
-        <v>47</v>
       </c>
       <c r="C27" t="n">
         <v>3.571</v>
       </c>
       <c r="D27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>57</v>
+      </c>
+      <c r="I27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="B30" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C30" t="n">
         <v>3.3675</v>
       </c>
       <c r="D30" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E30" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F30" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G30" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="B31" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C31" t="n">
         <v>3.55</v>
       </c>
       <c r="D31" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E31" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F31" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="B32" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C32" t="n">
         <v>3.5945</v>
       </c>
       <c r="D32" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E32" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F32" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G32" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="B35" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C35" t="n">
         <v>3.368</v>
       </c>
       <c r="D35" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E35" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F35" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="B36" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C36" t="n">
         <v>3.744</v>
       </c>
       <c r="D36" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E36" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F36" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H36" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="B37" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C37" t="n">
         <v>3.7225</v>
       </c>
       <c r="D37" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E37" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H37" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="B40" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C40" t="n">
         <v>3.88</v>
       </c>
       <c r="D40" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E40" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H40" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="B43" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C43" t="n">
         <v>3.722</v>
       </c>
       <c r="D43" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E43" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H43" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="B46" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C46" t="n">
         <v>3.154</v>
       </c>
       <c r="D46" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E46" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F46" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H46" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I46" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="B49" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C49" t="n">
         <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H49" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="B52" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C52" t="n">
         <v>3.707</v>
       </c>
       <c r="D52" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E52" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F52" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G52" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="H52" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>107</v>
+      </c>
+      <c r="I52" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="B53" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C53" t="n">
         <v>3.364</v>
       </c>
       <c r="D53" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F53" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="G53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H53" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I53" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="B54" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="C54" t="n">
         <v>3.7167</v>
       </c>
       <c r="D54" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E54" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F54" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="G54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H54" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>118</v>
+      </c>
+      <c r="I54" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="B57" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C57" t="n">
         <v>3.919</v>
       </c>
       <c r="D57" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E57" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="F57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H57" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I57" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="B58" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C58" t="n">
         <v>3.927</v>
       </c>
       <c r="D58" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="E58" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H58" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="B61" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="C61" t="n">
         <v>3.6</v>
       </c>
       <c r="D61" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="E61" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="F61" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="G61" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="H61" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="B62" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C62" t="n">
         <v>3.565</v>
       </c>
       <c r="D62" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="E62" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="F62" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="G62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H62" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I62" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="B63" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="C63" t="n">
         <v>3.594</v>
       </c>
       <c r="D63" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="E63" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="F63" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="G63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H63" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I63" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="B64" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C64" t="n">
         <v>3.896</v>
       </c>
       <c r="D64" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="E64" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H64" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>145</v>
+      </c>
+      <c r="I64" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="B65" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="C65" t="n">
         <v>3.733</v>
       </c>
       <c r="D65" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E65" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G65" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="H65" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I65" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="B66" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="C66" t="n">
         <v>3.6425</v>
       </c>
       <c r="D66" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E66" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="F66" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="G66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H66" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I66" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="B67" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C67" t="n">
         <v>3.735</v>
       </c>
       <c r="D67" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="E67" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="F67" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H67" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I67" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="B68" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="C68" t="n">
         <v>3.481</v>
       </c>
       <c r="D68" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E68" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="F68" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="G68" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="H68" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>162</v>
+      </c>
+      <c r="I68" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="B69" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="C69" t="n">
         <v>3.765</v>
       </c>
       <c r="D69" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E69" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G69" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="H69" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I69" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="B72" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="C72" t="n">
         <v>3.733</v>
       </c>
       <c r="D72" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="E72" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="F72" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="G72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H72" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I72" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="B73" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="C73" t="n">
         <v>3.9887</v>
       </c>
       <c r="D73" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="E73" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H73" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I73" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="B74" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="C74" t="n">
         <v>3.261</v>
       </c>
       <c r="D74" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="E74" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="F74" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="G74" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="H74" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I74" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="B75" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="C75" t="n">
         <v>3.347</v>
       </c>
       <c r="D75" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="E75" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="F75" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="G75" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="H75" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I75" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="B76" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="C76" t="n">
         <v>2.357</v>
       </c>
       <c r="D76" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="E76" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="F76" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="G76" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H76" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I76" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="B79" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C79" t="n">
         <v>4</v>
       </c>
       <c r="D79" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H79" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I79" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
